--- a/GownoNaPBL.xlsx
+++ b/GownoNaPBL.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubar\OneDrive\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sancti\git\PblScheduleAlgorythm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD82B333-D66B-4866-89B0-7C85DCD18848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4843AD-CAE6-4765-BB25-2A0A108537F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2445" windowWidth="24240" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Faculties" sheetId="2" r:id="rId2"/>
-    <sheet name="Subjects" sheetId="3" r:id="rId3"/>
-    <sheet name="Rooms" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Students" sheetId="6" r:id="rId6"/>
+    <sheet name="Faculties" sheetId="2" r:id="rId1"/>
+    <sheet name="Subjects" sheetId="3" r:id="rId2"/>
+    <sheet name="Rooms" sheetId="4" r:id="rId3"/>
+    <sheet name="Students" sheetId="6" r:id="rId4"/>
+    <sheet name="Tutors" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-  </pivotCaches>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="238">
   <si>
     <t>FacultyID</t>
   </si>
@@ -459,15 +468,6 @@
     <t>Room 40</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Count of StudentID</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>StudentID</t>
   </si>
   <si>
@@ -595,18 +595,184 @@
   </si>
   <si>
     <t>Thomas</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Ang</t>
+  </si>
+  <si>
+    <t>Programing</t>
+  </si>
+  <si>
+    <t>IFE</t>
+  </si>
+  <si>
+    <t>BaseOfFaculty</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Faculty ID</t>
+  </si>
+  <si>
+    <t>Monday Begin</t>
+  </si>
+  <si>
+    <t>Tuesday Begin</t>
+  </si>
+  <si>
+    <t>Wednesday Begin</t>
+  </si>
+  <si>
+    <t>Thursday Begin</t>
+  </si>
+  <si>
+    <t>Friday Begin</t>
+  </si>
+  <si>
+    <t>Monday End</t>
+  </si>
+  <si>
+    <t>Tuesday End</t>
+  </si>
+  <si>
+    <t>Wednesday End</t>
+  </si>
+  <si>
+    <t>Thursday End</t>
+  </si>
+  <si>
+    <t>Friday End</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Time Monday</t>
+  </si>
+  <si>
+    <t>TimeTuesday</t>
+  </si>
+  <si>
+    <t>Time Wednesday</t>
+  </si>
+  <si>
+    <t>Time Thursday</t>
+  </si>
+  <si>
+    <t>Time Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -617,7 +783,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -625,101 +791,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -735,73 +819,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="" refreshedDate="0" createdVersion="8" refreshedVersion="8" recordCount="0">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D201" sheet="Students"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="FacultyID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="StudentID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="FirstName" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="LastName" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" compact="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <dataFields count="1">
-    <dataField name="Count of StudentID" fld="1" subtotal="count" baseField="1" baseItem="1048828"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,25 +1137,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1238,18 +1240,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1271,8 +1275,11 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1294,8 +1301,11 @@
       <c r="G2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1317,8 +1327,11 @@
       <c r="G3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1340,8 +1353,11 @@
       <c r="G4">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1363,8 +1379,11 @@
       <c r="G5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1386,8 +1405,11 @@
       <c r="G6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1409,8 +1431,11 @@
       <c r="G7">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1432,8 +1457,11 @@
       <c r="G8">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1455,8 +1483,11 @@
       <c r="G9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1478,8 +1509,11 @@
       <c r="G10">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1501,8 +1535,11 @@
       <c r="G11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1524,8 +1561,11 @@
       <c r="G12">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1547,8 +1587,11 @@
       <c r="G13">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1570,8 +1613,11 @@
       <c r="G14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="G15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1616,8 +1665,11 @@
       <c r="G16">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1639,8 +1691,11 @@
       <c r="G17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1662,8 +1717,11 @@
       <c r="G18">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1685,8 +1743,11 @@
       <c r="G19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1708,8 +1769,11 @@
       <c r="G20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="G21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1754,8 +1821,11 @@
       <c r="G22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1777,8 +1847,11 @@
       <c r="G23">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1800,8 +1873,11 @@
       <c r="G24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1823,8 +1899,11 @@
       <c r="G25">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1846,8 +1925,11 @@
       <c r="G26">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1869,8 +1951,11 @@
       <c r="G27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1892,8 +1977,11 @@
       <c r="G28">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1915,8 +2003,11 @@
       <c r="G29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1938,8 +2029,11 @@
       <c r="G30">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1956,13 +2050,16 @@
         <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1979,13 +2076,16 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2002,13 +2102,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2025,13 +2128,16 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2048,13 +2154,16 @@
         <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2071,13 +2180,16 @@
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2094,13 +2206,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2122,8 +2237,11 @@
       <c r="G38">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2145,8 +2263,11 @@
       <c r="G39">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2168,8 +2289,11 @@
       <c r="G40">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2191,8 +2315,11 @@
       <c r="G41">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2214,8 +2341,11 @@
       <c r="G42">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2237,8 +2367,11 @@
       <c r="G43">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2260,8 +2393,11 @@
       <c r="G44">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2283,8 +2419,11 @@
       <c r="G45">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2306,8 +2445,11 @@
       <c r="G46">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2329,8 +2471,11 @@
       <c r="G47">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2352,8 +2497,11 @@
       <c r="G48">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2375,8 +2523,11 @@
       <c r="G49">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2398,8 +2549,11 @@
       <c r="G50">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2421,8 +2575,11 @@
       <c r="G51">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2444,8 +2601,11 @@
       <c r="G52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2467,8 +2627,11 @@
       <c r="G53">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2490,8 +2653,11 @@
       <c r="G54">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2513,8 +2679,11 @@
       <c r="G55">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2536,8 +2705,11 @@
       <c r="G56">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2559,8 +2731,11 @@
       <c r="G57">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2582,8 +2757,11 @@
       <c r="G58">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2605,8 +2783,11 @@
       <c r="G59">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2628,8 +2809,11 @@
       <c r="G60">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2651,8 +2835,11 @@
       <c r="G61">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2674,8 +2861,11 @@
       <c r="G62">
         <v>43</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2697,8 +2887,11 @@
       <c r="G63">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2720,8 +2913,11 @@
       <c r="G64">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2743,8 +2939,11 @@
       <c r="G65">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2766,8 +2965,11 @@
       <c r="G66">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2789,8 +2991,11 @@
       <c r="G67">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2812,8 +3017,11 @@
       <c r="G68">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2835,8 +3043,11 @@
       <c r="G69">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2858,8 +3069,11 @@
       <c r="G70">
         <v>49</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2881,8 +3095,11 @@
       <c r="G71">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2904,8 +3121,11 @@
       <c r="G72">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2927,8 +3147,11 @@
       <c r="G73">
         <v>41</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2950,8 +3173,11 @@
       <c r="G74">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2973,8 +3199,11 @@
       <c r="G75">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2996,8 +3225,11 @@
       <c r="G76">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3019,8 +3251,11 @@
       <c r="G77">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3042,8 +3277,11 @@
       <c r="G78">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3065,8 +3303,11 @@
       <c r="G79">
         <v>43</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3088,8 +3329,11 @@
       <c r="G80">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3110,6 +3354,9 @@
       </c>
       <c r="G81">
         <v>28</v>
+      </c>
+      <c r="H81" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3117,8 +3364,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3830,326 +4077,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="100" width="3" bestFit="1" customWidth="1"/>
-    <col min="101" max="201" width="4" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="8" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="6" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="6" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="6" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="6" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="8" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="6" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="6" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="8" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="6" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="6" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="6" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="6" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="6" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="6" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="8" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="6" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="6" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="8" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="6" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="6" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="6" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="7">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4161,13 +4090,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -4178,10 +4107,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -4192,10 +4121,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -4206,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4220,10 +4149,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4234,10 +4163,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -4248,10 +4177,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -4262,10 +4191,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -4276,10 +4205,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -4290,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4304,10 +4233,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -4318,10 +4247,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -4332,10 +4261,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4346,10 +4275,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -4360,10 +4289,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -4374,10 +4303,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -4388,10 +4317,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -4402,10 +4331,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -4416,10 +4345,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4430,10 +4359,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D20">
         <v>9</v>
@@ -4444,10 +4373,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
         <v>164</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -4458,10 +4387,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -4472,10 +4401,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4486,10 +4415,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -4500,10 +4429,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -4514,10 +4443,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4528,10 +4457,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -4542,10 +4471,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -4556,10 +4485,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4570,10 +4499,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4584,10 +4513,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -4598,10 +4527,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -4612,10 +4541,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -4626,10 +4555,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -4640,10 +4569,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4654,10 +4583,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -4668,10 +4597,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -4682,10 +4611,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -4696,10 +4625,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -4710,10 +4639,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -4724,10 +4653,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -4738,10 +4667,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -4752,10 +4681,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
         <v>160</v>
-      </c>
-      <c r="C43" t="s">
-        <v>163</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -4766,10 +4695,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -4780,10 +4709,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D45">
         <v>9</v>
@@ -4794,10 +4723,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -4808,10 +4737,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -4822,10 +4751,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D48">
         <v>10</v>
@@ -4836,10 +4765,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4850,10 +4779,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -4864,10 +4793,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D51">
         <v>7</v>
@@ -4878,10 +4807,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4892,10 +4821,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D53">
         <v>7</v>
@@ -4906,10 +4835,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4920,10 +4849,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -4934,10 +4863,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -4948,10 +4877,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -4962,10 +4891,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -4976,10 +4905,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -4990,10 +4919,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -5004,10 +4933,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D61">
         <v>9</v>
@@ -5018,10 +4947,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -5032,10 +4961,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -5046,10 +4975,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -5060,10 +4989,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -5074,10 +5003,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -5088,10 +5017,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -5102,10 +5031,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D68">
         <v>9</v>
@@ -5116,10 +5045,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -5130,10 +5059,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D70">
         <v>10</v>
@@ -5144,10 +5073,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -5158,10 +5087,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -5172,10 +5101,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -5186,10 +5115,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D74">
         <v>7</v>
@@ -5200,10 +5129,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5214,10 +5143,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -5228,10 +5157,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D77">
         <v>9</v>
@@ -5242,10 +5171,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
         <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>161</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -5256,10 +5185,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -5270,10 +5199,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -5284,10 +5213,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D81">
         <v>9</v>
@@ -5298,10 +5227,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -5312,10 +5241,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D83">
         <v>9</v>
@@ -5326,10 +5255,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5340,10 +5269,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -5354,10 +5283,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -5368,10 +5297,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -5382,10 +5311,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -5396,10 +5325,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -5410,10 +5339,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -5424,10 +5353,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -5438,10 +5367,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -5452,10 +5381,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -5466,10 +5395,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -5480,10 +5409,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -5494,10 +5423,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D96">
         <v>7</v>
@@ -5508,10 +5437,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D97">
         <v>9</v>
@@ -5522,10 +5451,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D98">
         <v>7</v>
@@ -5536,10 +5465,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" t="s">
         <v>162</v>
-      </c>
-      <c r="C99" t="s">
-        <v>165</v>
       </c>
       <c r="D99">
         <v>7</v>
@@ -5550,10 +5479,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -5564,10 +5493,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D101">
         <v>7</v>
@@ -5578,10 +5507,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -5592,10 +5521,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D103">
         <v>10</v>
@@ -5606,10 +5535,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D104">
         <v>10</v>
@@ -5620,10 +5549,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -5634,10 +5563,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" t="s">
         <v>158</v>
-      </c>
-      <c r="C106" t="s">
-        <v>161</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -5648,10 +5577,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -5662,10 +5591,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -5676,10 +5605,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D109">
         <v>10</v>
@@ -5690,10 +5619,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C110" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -5704,10 +5633,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D111">
         <v>10</v>
@@ -5718,10 +5647,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D112">
         <v>7</v>
@@ -5732,10 +5661,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C113" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D113">
         <v>7</v>
@@ -5746,10 +5675,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -5760,10 +5689,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -5774,10 +5703,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D116">
         <v>10</v>
@@ -5788,10 +5717,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -5802,10 +5731,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D118">
         <v>10</v>
@@ -5816,10 +5745,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5830,10 +5759,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -5844,10 +5773,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -5858,10 +5787,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -5872,10 +5801,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D123">
         <v>9</v>
@@ -5886,10 +5815,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D124">
         <v>9</v>
@@ -5900,10 +5829,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -5914,10 +5843,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D126">
         <v>10</v>
@@ -5928,10 +5857,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5942,10 +5871,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D128">
         <v>9</v>
@@ -5956,10 +5885,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C129" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D129">
         <v>9</v>
@@ -5970,10 +5899,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D130">
         <v>7</v>
@@ -5984,10 +5913,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -5998,10 +5927,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -6012,10 +5941,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -6026,10 +5955,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -6040,10 +5969,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -6054,10 +5983,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" t="s">
         <v>171</v>
-      </c>
-      <c r="C136" t="s">
-        <v>174</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6068,10 +5997,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -6082,10 +6011,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C138" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D138">
         <v>8</v>
@@ -6096,10 +6025,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C139" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D139">
         <v>4</v>
@@ -6110,10 +6039,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -6124,10 +6053,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D141">
         <v>7</v>
@@ -6138,10 +6067,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -6152,10 +6081,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D143">
         <v>7</v>
@@ -6166,10 +6095,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D144">
         <v>10</v>
@@ -6180,10 +6109,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -6194,10 +6123,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -6208,10 +6137,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -6222,10 +6151,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C148" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6236,10 +6165,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C149" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -6250,10 +6179,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D150">
         <v>6</v>
@@ -6264,10 +6193,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -6278,10 +6207,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -6292,10 +6221,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D153">
         <v>6</v>
@@ -6306,10 +6235,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C154" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D154">
         <v>7</v>
@@ -6320,10 +6249,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C155" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D155">
         <v>6</v>
@@ -6334,10 +6263,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -6348,10 +6277,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C157" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -6362,10 +6291,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -6376,10 +6305,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C159" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D159">
         <v>5</v>
@@ -6390,10 +6319,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -6404,10 +6333,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D161">
         <v>4</v>
@@ -6418,10 +6347,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C162" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D162">
         <v>7</v>
@@ -6432,10 +6361,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D163">
         <v>8</v>
@@ -6446,10 +6375,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C164" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D164">
         <v>8</v>
@@ -6460,10 +6389,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C165" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -6474,10 +6403,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C166" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D166">
         <v>9</v>
@@ -6488,10 +6417,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C167" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -6502,10 +6431,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C168" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -6516,10 +6445,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" t="s">
         <v>185</v>
-      </c>
-      <c r="C169" t="s">
-        <v>188</v>
       </c>
       <c r="D169">
         <v>6</v>
@@ -6530,10 +6459,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C170" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6544,10 +6473,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C171" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D171">
         <v>5</v>
@@ -6558,10 +6487,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C172" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D172">
         <v>6</v>
@@ -6572,10 +6501,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C173" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -6586,10 +6515,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -6600,10 +6529,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D175">
         <v>10</v>
@@ -6614,10 +6543,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D176">
         <v>8</v>
@@ -6628,10 +6557,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -6642,10 +6571,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D178">
         <v>10</v>
@@ -6656,10 +6585,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C179" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D179">
         <v>8</v>
@@ -6670,10 +6599,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C180" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D180">
         <v>10</v>
@@ -6684,10 +6613,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C181" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D181">
         <v>7</v>
@@ -6698,10 +6627,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C182" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D182">
         <v>7</v>
@@ -6712,10 +6641,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C183" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D183">
         <v>7</v>
@@ -6726,10 +6655,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D184">
         <v>4</v>
@@ -6740,10 +6669,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C185" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D185">
         <v>6</v>
@@ -6754,10 +6683,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C186" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D186">
         <v>4</v>
@@ -6768,10 +6697,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C187" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -6782,10 +6711,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C188" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D188">
         <v>9</v>
@@ -6796,10 +6725,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C189" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D189">
         <v>10</v>
@@ -6810,10 +6739,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C190" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -6824,10 +6753,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C191" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D191">
         <v>10</v>
@@ -6838,10 +6767,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D192">
         <v>4</v>
@@ -6852,10 +6781,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C193" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D193">
         <v>10</v>
@@ -6866,10 +6795,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C194" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D194">
         <v>6</v>
@@ -6880,10 +6809,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C195" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D195">
         <v>8</v>
@@ -6894,10 +6823,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C196" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -6908,10 +6837,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C197" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D197">
         <v>6</v>
@@ -6922,10 +6851,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C198" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D198">
         <v>6</v>
@@ -6936,10 +6865,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C199" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -6950,10 +6879,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C200" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D200">
         <v>5</v>
@@ -6964,10 +6893,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C201" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -6976,4 +6905,1422 @@
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939B6BA6-8329-4BC3-8399-BC95148CDA37}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="1">
+        <f>K2-F2</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:T17" si="0">L2-G2</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:T21" si="1">K3-F3</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>